--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2823009.635977665</v>
+        <v>2822622.925575862</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644331</v>
+        <v>247834.3978644342</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273656</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>139.9542833990448</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>298.3583182544175</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -750,13 +750,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>39.72277930691243</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -798,7 +798,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>11.25894983759932</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>112.6378969032811</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -944,19 +944,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>93.61189974752725</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -984,10 +984,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>53.56627272594268</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>84.72524684537363</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3870690546049</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>21.23135046172726</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>234.8464430340757</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>54.52513321799584</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1263,7 +1263,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>128.6636701070372</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>176.4944090683902</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>120.5841378245459</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1370,16 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>189.898048589254</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
         <v>298.5127811721451</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655128</v>
+        <v>150.7414187127517</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>49.76336609796046</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>122.7710337916627</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1543,10 +1543,10 @@
         <v>53.80038563761975</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031035</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513968</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.53316576922812</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747226</v>
+        <v>239.7696397538977</v>
       </c>
       <c r="G14" t="n">
         <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
@@ -1667,7 +1667,7 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
         <v>264.7796735655128</v>
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>11.25159433703939</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1740,7 +1740,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>128.6229599359449</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.0992794299671</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1105963876488</v>
+        <v>207.1105963876487</v>
       </c>
       <c r="D17" t="n">
-        <v>198.0919004321768</v>
+        <v>198.0919004321766</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020822</v>
       </c>
       <c r="F17" t="n">
-        <v>239.0058540900595</v>
+        <v>239.0058540900607</v>
       </c>
       <c r="G17" t="n">
-        <v>240.939121987482</v>
+        <v>240.9391219874819</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4892369657919</v>
+        <v>158.4892369657918</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211042008441</v>
+        <v>0.08520211041991388</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.35286092307771</v>
+        <v>14.35286092307754</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342707</v>
+        <v>51.1115321134269</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027403</v>
+        <v>81.33265823027386</v>
       </c>
       <c r="V17" t="n">
-        <v>162.6056566701459</v>
+        <v>162.605656670146</v>
       </c>
       <c r="W17" t="n">
-        <v>187.9057561481031</v>
+        <v>187.9057561481029</v>
       </c>
       <c r="X17" t="n">
-        <v>207.2060143808497</v>
+        <v>207.2060143808496</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770485</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>78.95005679388034</v>
+        <v>11.25159433703939</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466416</v>
+        <v>10.71599030466399</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747745</v>
+        <v>40.56884027747728</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960609</v>
+        <v>59.84333895960592</v>
       </c>
       <c r="U19" t="n">
-        <v>113.3145124229193</v>
+        <v>113.3145124229191</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428975</v>
+        <v>87.12412670428958</v>
       </c>
       <c r="W19" t="n">
-        <v>112.291012774903</v>
+        <v>112.2910127749028</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070613</v>
+        <v>57.93611477070596</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81098252677381</v>
+        <v>48.81098252677364</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.0992794299671</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C20" t="n">
-        <v>207.1105963876488</v>
+        <v>207.1105963876487</v>
       </c>
       <c r="D20" t="n">
-        <v>198.0919004321768</v>
+        <v>198.0919004321766</v>
       </c>
       <c r="E20" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020822</v>
       </c>
       <c r="F20" t="n">
-        <v>239.0058540900595</v>
+        <v>239.0058540900607</v>
       </c>
       <c r="G20" t="n">
-        <v>240.939121987482</v>
+        <v>240.9391219874819</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4892369657919</v>
+        <v>158.4892369657918</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211042008441</v>
+        <v>0.08520211041991388</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.35286092307771</v>
+        <v>14.35286092307754</v>
       </c>
       <c r="T20" t="n">
-        <v>51.11153211342707</v>
+        <v>51.1115321134269</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027403</v>
+        <v>81.33265823027386</v>
       </c>
       <c r="V20" t="n">
-        <v>162.6056566701462</v>
+        <v>162.605656670146</v>
       </c>
       <c r="W20" t="n">
-        <v>187.9057561481031</v>
+        <v>187.9057561481029</v>
       </c>
       <c r="X20" t="n">
-        <v>207.2060143808497</v>
+        <v>207.2060143808496</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.6026121770485</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>78.95005679387901</v>
       </c>
       <c r="I21" t="n">
-        <v>39.19800413111551</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.71599030466416</v>
+        <v>10.71599030466399</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747745</v>
+        <v>40.56884027747728</v>
       </c>
       <c r="T22" t="n">
-        <v>59.84333895960609</v>
+        <v>59.84333895960592</v>
       </c>
       <c r="U22" t="n">
-        <v>113.3145124229193</v>
+        <v>113.3145124229191</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428975</v>
+        <v>87.12412670428958</v>
       </c>
       <c r="W22" t="n">
-        <v>112.291012774903</v>
+        <v>112.2910127749028</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070613</v>
+        <v>57.93611477070596</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81098252677381</v>
+        <v>48.81098252677364</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C23" t="n">
-        <v>207.1105963876488</v>
+        <v>207.1105963876487</v>
       </c>
       <c r="D23" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321766</v>
       </c>
       <c r="E23" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020822</v>
       </c>
       <c r="F23" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900593</v>
       </c>
       <c r="G23" t="n">
-        <v>240.939121987482</v>
+        <v>240.9391219874819</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4892369657919</v>
+        <v>158.4892369657918</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08520211042002757</v>
+        <v>0.08520211041991388</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.35286092307766</v>
+        <v>14.35286092307754</v>
       </c>
       <c r="T23" t="n">
-        <v>51.11153211342702</v>
+        <v>51.1115321134269</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027398</v>
+        <v>81.33265823027386</v>
       </c>
       <c r="V23" t="n">
-        <v>162.6056566701461</v>
+        <v>162.605656670146</v>
       </c>
       <c r="W23" t="n">
-        <v>187.9057561481031</v>
+        <v>187.9057561481029</v>
       </c>
       <c r="X23" t="n">
-        <v>207.2060143808497</v>
+        <v>207.2060143808496</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>78.95005679387857</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>138.4247817844213</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.7159903046641</v>
+        <v>10.71599030466399</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747739</v>
+        <v>40.56884027747728</v>
       </c>
       <c r="T25" t="n">
-        <v>59.84333895960603</v>
+        <v>59.84333895960592</v>
       </c>
       <c r="U25" t="n">
-        <v>113.3145124229192</v>
+        <v>113.3145124229191</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428969</v>
+        <v>87.12412670428958</v>
       </c>
       <c r="W25" t="n">
-        <v>112.291012774903</v>
+        <v>112.2910127749028</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070607</v>
+        <v>57.93611477070596</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81098252677376</v>
+        <v>48.81098252677364</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>276.6729386146301</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>211.2166808877229</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>277.4076971867454</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
         <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774079</v>
       </c>
       <c r="T26" t="n">
-        <v>87.09406839815757</v>
+        <v>108.6851912980901</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149371</v>
@@ -2621,7 +2621,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617115</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932723</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472771</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.1110087323061</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808555</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627186</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.8003856376197</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031012</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513947</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355678</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214052</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
       </c>
       <c r="U28" t="n">
-        <v>170.8881716075824</v>
+        <v>170.8881716075823</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6977858889529</v>
+        <v>144.6977858889528</v>
       </c>
       <c r="W28" t="n">
         <v>169.8646719595661</v>
@@ -2798,19 +2798,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>78.50397138163092</v>
+        <v>175.2999571625445</v>
       </c>
       <c r="I29" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932727</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.452416085674</v>
+        <v>248.4524160856739</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433558</v>
+        <v>236.4637330433556</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878837</v>
+        <v>227.4450370878836</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577893</v>
+        <v>249.1871746577891</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457664</v>
+        <v>268.3589907457663</v>
       </c>
       <c r="G32" t="n">
-        <v>270.292258643189</v>
+        <v>270.2922586431888</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214989</v>
+        <v>187.8423736214988</v>
       </c>
       <c r="I32" t="n">
-        <v>29.43833876612703</v>
+        <v>29.43833876612689</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878466</v>
+        <v>43.70599757878452</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913402</v>
+        <v>80.46466876913388</v>
       </c>
       <c r="U32" t="n">
-        <v>110.685794885981</v>
+        <v>110.6857948859808</v>
       </c>
       <c r="V32" t="n">
-        <v>191.9587933258532</v>
+        <v>191.958793325853</v>
       </c>
       <c r="W32" t="n">
-        <v>217.2588928038101</v>
+        <v>217.2588928038099</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365567</v>
+        <v>236.5591510365565</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327554</v>
+        <v>247.9557488327553</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326561</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037111</v>
+        <v>40.06912696037097</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577159</v>
+        <v>26.26912180577145</v>
       </c>
       <c r="D34" t="n">
-        <v>9.89048620334998</v>
+        <v>9.890486203349838</v>
       </c>
       <c r="E34" t="n">
-        <v>8.838236059129429</v>
+        <v>8.838236059129287</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315738</v>
+        <v>9.305160387315595</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57986310866357</v>
+        <v>25.57986310866343</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135399</v>
+        <v>16.12823073135385</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183342</v>
+        <v>1.1103259161832</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600652</v>
+        <v>6.37587553460051</v>
       </c>
       <c r="S34" t="n">
-        <v>69.9219769331844</v>
+        <v>69.92197693318425</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531303</v>
+        <v>89.19647561531289</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786262</v>
+        <v>142.6676490786261</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599967</v>
+        <v>116.4772633599966</v>
       </c>
       <c r="W34" t="n">
-        <v>141.64414943061</v>
+        <v>141.6441494306098</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28925142641307</v>
+        <v>87.28925142641293</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248076</v>
+        <v>78.16411918248062</v>
       </c>
     </row>
     <row r="35">
@@ -3360,7 +3360,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C38" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D38" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E38" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F38" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G38" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H38" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I38" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T38" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U38" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V38" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W38" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X38" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="39">
@@ -3594,10 +3594,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C40" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T40" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U40" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V40" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W40" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X40" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.7437828235485</v>
+        <v>229.7437828235484</v>
       </c>
       <c r="C41" t="n">
-        <v>217.7550997812303</v>
+        <v>217.7550997812301</v>
       </c>
       <c r="D41" t="n">
-        <v>208.7364038257583</v>
+        <v>208.7364038257581</v>
       </c>
       <c r="E41" t="n">
-        <v>230.4785413956638</v>
+        <v>230.4785413956637</v>
       </c>
       <c r="F41" t="n">
-        <v>249.650357483641</v>
+        <v>249.6503574836408</v>
       </c>
       <c r="G41" t="n">
-        <v>251.5836253810635</v>
+        <v>251.5836253810633</v>
       </c>
       <c r="H41" t="n">
-        <v>169.1337403593734</v>
+        <v>82.5875827118779</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.7297055040014</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665917</v>
+        <v>24.99736431665903</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>61.75603550700839</v>
       </c>
       <c r="U41" t="n">
-        <v>91.97716162385549</v>
+        <v>91.97716162385535</v>
       </c>
       <c r="V41" t="n">
-        <v>173.2501600637277</v>
+        <v>173.2501600637275</v>
       </c>
       <c r="W41" t="n">
-        <v>184.4898429051967</v>
+        <v>198.5502595416844</v>
       </c>
       <c r="X41" t="n">
-        <v>217.8505177744312</v>
+        <v>217.850517774431</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.2471155706299</v>
+        <v>229.2471155706298</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3867,7 +3867,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824562</v>
+        <v>21.36049369824548</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543646102</v>
+        <v>7.56048854364596</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846538085</v>
+        <v>6.871229846537943</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105891</v>
+        <v>51.21334367105877</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318755</v>
+        <v>70.4878423531874</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9590158165007</v>
+        <v>123.9590158165006</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787121</v>
+        <v>97.76863009787107</v>
       </c>
       <c r="W43" t="n">
-        <v>122.9355161684845</v>
+        <v>122.9355161684843</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428759</v>
+        <v>68.58061816428744</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035527</v>
+        <v>59.45548592035513</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.7437828235485</v>
+        <v>229.7437828235483</v>
       </c>
       <c r="C44" t="n">
-        <v>217.7550997812303</v>
+        <v>217.7550997812301</v>
       </c>
       <c r="D44" t="n">
-        <v>208.7364038257583</v>
+        <v>208.736403825758</v>
       </c>
       <c r="E44" t="n">
-        <v>230.4785413956638</v>
+        <v>230.4785413956636</v>
       </c>
       <c r="F44" t="n">
-        <v>249.650357483641</v>
+        <v>249.6503574836407</v>
       </c>
       <c r="G44" t="n">
-        <v>251.5836253810635</v>
+        <v>251.5836253810633</v>
       </c>
       <c r="H44" t="n">
-        <v>169.1337403593734</v>
+        <v>82.58758271187862</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400154</v>
+        <v>10.72970550400132</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665917</v>
+        <v>24.99736431665895</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700853</v>
+        <v>61.75603550700831</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385549</v>
+        <v>91.97716162385527</v>
       </c>
       <c r="V44" t="n">
-        <v>173.2501600637277</v>
+        <v>173.2501600637274</v>
       </c>
       <c r="W44" t="n">
-        <v>198.5502595416846</v>
+        <v>198.5502595416843</v>
       </c>
       <c r="X44" t="n">
-        <v>131.3043601269332</v>
+        <v>217.850517774431</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.2471155706299</v>
+        <v>229.2471155706297</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326566</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824562</v>
+        <v>21.36049369824539</v>
       </c>
       <c r="C46" t="n">
-        <v>7.560488543646102</v>
+        <v>7.560488543645874</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846538085</v>
+        <v>6.871229846537858</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105891</v>
+        <v>51.21334367105868</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318755</v>
+        <v>70.48784235318732</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9590158165007</v>
+        <v>123.9590158165005</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787121</v>
+        <v>97.76863009787098</v>
       </c>
       <c r="W46" t="n">
-        <v>122.9355161684845</v>
+        <v>122.9355161684842</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428759</v>
+        <v>68.58061816428736</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.45548592035527</v>
+        <v>59.45548592035504</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234.8484935636316</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="C2" t="n">
-        <v>234.8484935636316</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="D2" t="n">
-        <v>234.8484935636316</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="E2" t="n">
-        <v>234.8484935636316</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="F2" t="n">
-        <v>224.737706914206</v>
+        <v>526.1097455550309</v>
       </c>
       <c r="G2" t="n">
-        <v>212.674124408798</v>
+        <v>514.0461630496229</v>
       </c>
       <c r="H2" t="n">
-        <v>212.674124408798</v>
+        <v>181.2248886469322</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J2" t="n">
         <v>111.8554698903997</v>
@@ -4334,46 +4334,46 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L2" t="n">
-        <v>699.8812150201288</v>
+        <v>593.6820213234739</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.120381273217</v>
+        <v>986.9211875765618</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.451739960932</v>
+        <v>1365.252546264277</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.456324433766</v>
+        <v>1670.257130737112</v>
       </c>
       <c r="P2" t="n">
-        <v>1992.846280879702</v>
+        <v>1898.414027193165</v>
       </c>
       <c r="Q2" t="n">
         <v>1992.846280879702</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.207994375556</v>
+        <v>1902.207994375555</v>
       </c>
       <c r="S2" t="n">
-        <v>1714.97901900591</v>
+        <v>1714.979019005909</v>
       </c>
       <c r="T2" t="n">
-        <v>1490.620072736921</v>
+        <v>1490.62007273692</v>
       </c>
       <c r="U2" t="n">
-        <v>1235.734736450915</v>
+        <v>1235.734736450914</v>
       </c>
       <c r="V2" t="n">
-        <v>898.7554623468563</v>
+        <v>898.7554623468554</v>
       </c>
       <c r="W2" t="n">
-        <v>536.2205322044574</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="X2" t="n">
-        <v>234.8484935636316</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="Y2" t="n">
-        <v>234.8484935636316</v>
+        <v>536.2205322044565</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>772.1416761765093</v>
+        <v>353.5133801794394</v>
       </c>
       <c r="C3" t="n">
-        <v>610.4380034174641</v>
+        <v>353.5133801794394</v>
       </c>
       <c r="D3" t="n">
-        <v>471.5993664076761</v>
+        <v>214.6747431696514</v>
       </c>
       <c r="E3" t="n">
-        <v>471.5993664076761</v>
+        <v>214.6747431696514</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9055683575505</v>
+        <v>79.98094511952579</v>
       </c>
       <c r="G3" t="n">
-        <v>208.177068380835</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="H3" t="n">
-        <v>108.2392109275331</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J3" t="n">
-        <v>39.85692561759405</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K3" t="n">
-        <v>39.85692561759405</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6787707877097</v>
+        <v>464.611892282004</v>
       </c>
       <c r="M3" t="n">
-        <v>890.7121242979362</v>
+        <v>949.6452457922304</v>
       </c>
       <c r="N3" t="n">
-        <v>1383.941578815663</v>
+        <v>1442.874700309957</v>
       </c>
       <c r="O3" t="n">
-        <v>1776.141529599813</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="P3" t="n">
-        <v>1992.846280879702</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="Q3" t="n">
         <v>1992.846280879702</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.062011974648</v>
+        <v>1933.062011974647</v>
       </c>
       <c r="S3" t="n">
         <v>1780.262524987388</v>
       </c>
       <c r="T3" t="n">
-        <v>1780.262524987388</v>
+        <v>1591.577421153373</v>
       </c>
       <c r="U3" t="n">
-        <v>1561.767732585698</v>
+        <v>1373.082628751683</v>
       </c>
       <c r="V3" t="n">
-        <v>1333.372110034032</v>
+        <v>1144.687006200017</v>
       </c>
       <c r="W3" t="n">
-        <v>1321.999433430397</v>
+        <v>903.3711374333269</v>
       </c>
       <c r="X3" t="n">
-        <v>1124.082445308191</v>
+        <v>705.4541493111215</v>
       </c>
       <c r="Y3" t="n">
-        <v>931.5611189577703</v>
+        <v>512.9328229607003</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.1472855352813</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="C4" t="n">
-        <v>170.1472855352813</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="D4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="E4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="F4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="G4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="H4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="K4" t="n">
         <v>73.46111336223746</v>
@@ -4507,31 +4507,31 @@
         <v>571.9161708635265</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.3788295172155</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="R4" t="n">
-        <v>383.8570481315937</v>
+        <v>422.3943894779047</v>
       </c>
       <c r="S4" t="n">
-        <v>170.1472855352813</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="T4" t="n">
-        <v>170.1472855352813</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="U4" t="n">
-        <v>170.1472855352813</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="V4" t="n">
-        <v>170.1472855352813</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="W4" t="n">
-        <v>170.1472855352813</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="X4" t="n">
-        <v>170.1472855352813</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="Y4" t="n">
-        <v>170.1472855352813</v>
+        <v>39.85692561759404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1902.207994375556</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="C5" t="n">
-        <v>1520.274235708363</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="D5" t="n">
-        <v>1147.450270935587</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="E5" t="n">
-        <v>752.6645510416934</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="F5" t="n">
-        <v>338.5133603518637</v>
+        <v>224.737706914206</v>
       </c>
       <c r="G5" t="n">
-        <v>326.4497778464557</v>
+        <v>212.674124408798</v>
       </c>
       <c r="H5" t="n">
         <v>212.674124408798</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J5" t="n">
-        <v>39.85692561759405</v>
+        <v>111.8554698903997</v>
       </c>
       <c r="K5" t="n">
-        <v>245.7966482385286</v>
+        <v>351.9958419351825</v>
       </c>
       <c r="L5" t="n">
-        <v>593.6820213234748</v>
+        <v>699.8812150201287</v>
       </c>
       <c r="M5" t="n">
-        <v>986.9211875765627</v>
+        <v>1093.120381273217</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.252546264278</v>
+        <v>1365.252546264277</v>
       </c>
       <c r="O5" t="n">
         <v>1670.257130737112</v>
@@ -4589,28 +4589,28 @@
         <v>1992.846280879702</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.207994375556</v>
+        <v>1902.207994375555</v>
       </c>
       <c r="S5" t="n">
-        <v>1902.207994375556</v>
+        <v>1807.650519883103</v>
       </c>
       <c r="T5" t="n">
-        <v>1902.207994375556</v>
+        <v>1583.291573614114</v>
       </c>
       <c r="U5" t="n">
-        <v>1902.207994375556</v>
+        <v>1328.406237328109</v>
       </c>
       <c r="V5" t="n">
-        <v>1902.207994375556</v>
+        <v>991.4269632240498</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.207994375556</v>
+        <v>628.8920330816508</v>
       </c>
       <c r="X5" t="n">
-        <v>1902.207994375556</v>
+        <v>628.8920330816508</v>
       </c>
       <c r="Y5" t="n">
-        <v>1902.207994375556</v>
+        <v>628.8920330816508</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.1696861196382</v>
+        <v>655.747388092797</v>
       </c>
       <c r="C6" t="n">
-        <v>757.4660133605929</v>
+        <v>494.0437153337517</v>
       </c>
       <c r="D6" t="n">
-        <v>618.627376350805</v>
+        <v>355.2050783239638</v>
       </c>
       <c r="E6" t="n">
-        <v>471.5993664076761</v>
+        <v>208.177068380835</v>
       </c>
       <c r="F6" t="n">
-        <v>336.9055683575505</v>
+        <v>208.177068380835</v>
       </c>
       <c r="G6" t="n">
         <v>208.177068380835</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2392109275331</v>
+        <v>108.239210927533</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J6" t="n">
-        <v>39.85692561759405</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K6" t="n">
-        <v>269.3474781777827</v>
+        <v>329.6016247108888</v>
       </c>
       <c r="L6" t="n">
-        <v>269.3474781777827</v>
+        <v>695.4234698810044</v>
       </c>
       <c r="M6" t="n">
-        <v>754.3808316880092</v>
+        <v>949.6452457922304</v>
       </c>
       <c r="N6" t="n">
-        <v>1140.77878103426</v>
+        <v>1442.874700309957</v>
       </c>
       <c r="O6" t="n">
-        <v>1532.978731818411</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="P6" t="n">
-        <v>1835.074651094108</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="Q6" t="n">
         <v>1992.846280879702</v>
       </c>
       <c r="R6" t="n">
-        <v>1992.846280879702</v>
+        <v>1933.062011974647</v>
       </c>
       <c r="S6" t="n">
-        <v>1992.846280879702</v>
+        <v>1780.262524987388</v>
       </c>
       <c r="T6" t="n">
-        <v>1992.846280879702</v>
+        <v>1591.577421153373</v>
       </c>
       <c r="U6" t="n">
-        <v>1938.738934691881</v>
+        <v>1373.082628751683</v>
       </c>
       <c r="V6" t="n">
-        <v>1710.343312140215</v>
+        <v>1287.501571332114</v>
       </c>
       <c r="W6" t="n">
-        <v>1469.027443373526</v>
+        <v>1046.185702565424</v>
       </c>
       <c r="X6" t="n">
-        <v>1271.11045525132</v>
+        <v>848.2687144432182</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.589128900899</v>
+        <v>655.747388092797</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="C7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="D7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="E7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="F7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="G7" t="n">
-        <v>199.2295708383202</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="H7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="K7" t="n">
         <v>73.46111336223746</v>
@@ -4747,28 +4747,28 @@
         <v>571.9161708635265</v>
       </c>
       <c r="R7" t="n">
-        <v>571.9161708635265</v>
+        <v>422.3943894779047</v>
       </c>
       <c r="S7" t="n">
-        <v>358.2064082672141</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="T7" t="n">
-        <v>358.2064082672141</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="U7" t="n">
-        <v>358.2064082672141</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="V7" t="n">
-        <v>358.2064082672141</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="W7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="X7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>963.1058790148937</v>
+        <v>818.9563486960019</v>
       </c>
       <c r="C8" t="n">
-        <v>581.1721203477011</v>
+        <v>437.0225900288092</v>
       </c>
       <c r="D8" t="n">
-        <v>581.1721203477011</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>581.1721203477011</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>559.7263118005019</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.677874917562</v>
+        <v>1056.174978023351</v>
       </c>
       <c r="X8" t="n">
-        <v>1356.647734439056</v>
+        <v>818.9563486960019</v>
       </c>
       <c r="Y8" t="n">
-        <v>963.1058790148937</v>
+        <v>818.9563486960019</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>245.1003394612639</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>245.1003394612639</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4887,19 +4887,19 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>756.5481621716143</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1758.665746029226</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1540.170953627536</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1311.77533107587</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1311.77533107587</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1113.858342953665</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>921.3370166032433</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4987,25 @@
         <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>246.284539084348</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T10" t="n">
-        <v>246.284539084348</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U10" t="n">
-        <v>246.284539084348</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="V10" t="n">
-        <v>246.284539084348</v>
+        <v>163.8264155199325</v>
       </c>
       <c r="W10" t="n">
-        <v>246.284539084348</v>
+        <v>163.8264155199325</v>
       </c>
       <c r="X10" t="n">
-        <v>246.284539084348</v>
+        <v>163.8264155199325</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.636709239165</v>
+        <v>1198.26428433599</v>
       </c>
       <c r="C11" t="n">
-        <v>1139.636709239165</v>
+        <v>930.9064504245641</v>
       </c>
       <c r="D11" t="n">
-        <v>881.3886692221549</v>
+        <v>930.9064504245641</v>
       </c>
       <c r="E11" t="n">
-        <v>601.1788740840278</v>
+        <v>650.6966552864374</v>
       </c>
       <c r="F11" t="n">
-        <v>409.3626633878117</v>
+        <v>351.1213893523741</v>
       </c>
       <c r="G11" t="n">
-        <v>107.8346015977661</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H11" t="n">
-        <v>107.8346015977661</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I11" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J11" t="n">
         <v>233.8877356882608</v>
       </c>
       <c r="K11" t="n">
-        <v>484.5637385185841</v>
+        <v>474.0281077330435</v>
       </c>
       <c r="L11" t="n">
-        <v>832.4491116035304</v>
+        <v>832.449111603529</v>
       </c>
       <c r="M11" t="n">
-        <v>1225.688277856618</v>
+        <v>1225.688277856617</v>
       </c>
       <c r="N11" t="n">
-        <v>1604.019636544334</v>
+        <v>1716.315500397459</v>
       </c>
       <c r="O11" t="n">
-        <v>1909.024221017168</v>
+        <v>2021.320084870293</v>
       </c>
       <c r="P11" t="n">
-        <v>2249.476981326348</v>
+        <v>2361.772845179473</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.205098866012</v>
+        <v>2456.20509886601</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S11" t="n">
-        <v>2407.013327502545</v>
+        <v>2407.013327502543</v>
       </c>
       <c r="T11" t="n">
-        <v>2297.230305989322</v>
+        <v>2297.230305989321</v>
       </c>
       <c r="U11" t="n">
-        <v>2156.920894459082</v>
+        <v>2156.920894459081</v>
       </c>
       <c r="V11" t="n">
-        <v>1934.51754511079</v>
+        <v>2156.920894459081</v>
       </c>
       <c r="W11" t="n">
-        <v>1686.558539724158</v>
+        <v>1908.961889072448</v>
       </c>
       <c r="X11" t="n">
-        <v>1419.104324001418</v>
+        <v>1756.697829766639</v>
       </c>
       <c r="Y11" t="n">
-        <v>1419.104324001418</v>
+        <v>1477.731899098243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C12" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D12" t="n">
         <v>628.3637782955393</v>
@@ -5115,7 +5115,7 @@
         <v>117.9756128722675</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J12" t="n">
         <v>109.8474740954346</v>
@@ -5136,34 +5136,34 @@
         <v>2093.658822243239</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.754741518936</v>
+        <v>2321.894748330829</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R12" t="n">
-        <v>2479.666378116424</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S12" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456225</v>
+        <v>347.2348244456223</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1947796630692</v>
+        <v>292.194779663069</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465984</v>
+        <v>253.6988112465981</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636837</v>
+        <v>216.2657217636834</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3609915452272</v>
+        <v>178.3609915452269</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0171676688435</v>
+        <v>124.0171676688433</v>
       </c>
       <c r="H13" t="n">
-        <v>79.22044720388357</v>
+        <v>79.22044720388362</v>
       </c>
       <c r="I13" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J13" t="n">
-        <v>103.0270918774856</v>
+        <v>103.0270918774858</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9271434752557</v>
+        <v>248.9271434752559</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8300867286418</v>
+        <v>461.8300867286421</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093701</v>
+        <v>692.1194567093704</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120971</v>
+        <v>922.8376623120975</v>
       </c>
       <c r="O13" t="n">
-        <v>1133.597172660913</v>
+        <v>1133.597172660914</v>
       </c>
       <c r="P13" t="n">
         <v>1308.861520242178</v>
@@ -5230,19 +5230,19 @@
         <v>1130.704212942829</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876959</v>
+        <v>958.0898981876957</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018849</v>
+        <v>811.9305185018846</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3500417750504</v>
+        <v>640.3500417750502</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6735024261925</v>
+        <v>523.6735024261923</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742359</v>
+        <v>416.2142683742357</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1181.282834571281</v>
+        <v>860.6707785707677</v>
       </c>
       <c r="C14" t="n">
-        <v>913.9250006598548</v>
+        <v>593.3129446593415</v>
       </c>
       <c r="D14" t="n">
-        <v>913.9250006598548</v>
+        <v>593.3129446593415</v>
       </c>
       <c r="E14" t="n">
-        <v>868.9420049333618</v>
+        <v>593.3129446593415</v>
       </c>
       <c r="F14" t="n">
-        <v>569.3667389992985</v>
+        <v>351.1213893523741</v>
       </c>
       <c r="G14" t="n">
-        <v>267.8386772092529</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H14" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I14" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J14" t="n">
-        <v>233.8877356882608</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K14" t="n">
-        <v>474.0281077330436</v>
+        <v>361.7322438799169</v>
       </c>
       <c r="L14" t="n">
-        <v>821.9134808179898</v>
+        <v>709.6176169648631</v>
       </c>
       <c r="M14" t="n">
         <v>1215.152647071078</v>
       </c>
       <c r="N14" t="n">
-        <v>1604.019636544334</v>
+        <v>1705.77986961192</v>
       </c>
       <c r="O14" t="n">
-        <v>2021.320084870295</v>
+        <v>2123.080317937881</v>
       </c>
       <c r="P14" t="n">
-        <v>2249.476981326348</v>
+        <v>2361.772845179473</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866012</v>
+        <v>2456.20509886601</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S14" t="n">
-        <v>2479.666378116424</v>
+        <v>2407.013327502543</v>
       </c>
       <c r="T14" t="n">
-        <v>2369.883356603202</v>
+        <v>2297.230305989321</v>
       </c>
       <c r="U14" t="n">
-        <v>2229.573945072962</v>
+        <v>2156.920894459081</v>
       </c>
       <c r="V14" t="n">
-        <v>2007.17059572467</v>
+        <v>1934.517545110789</v>
       </c>
       <c r="W14" t="n">
-        <v>2007.17059572467</v>
+        <v>1686.558539724156</v>
       </c>
       <c r="X14" t="n">
-        <v>1739.71638000193</v>
+        <v>1419.104324001416</v>
       </c>
       <c r="Y14" t="n">
-        <v>1460.750449333534</v>
+        <v>1140.13839333302</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C15" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D15" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473276</v>
       </c>
       <c r="E15" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577041988</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540732</v>
       </c>
       <c r="G15" t="n">
-        <v>217.9134703255694</v>
+        <v>129.3408596773578</v>
       </c>
       <c r="H15" t="n">
         <v>117.9756128722675</v>
       </c>
       <c r="I15" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J15" t="n">
         <v>109.8474740954346</v>
@@ -5364,43 +5364,43 @@
         <v>705.1598718257389</v>
       </c>
       <c r="M15" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147859</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.598878270981</v>
       </c>
       <c r="O15" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055132</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330829</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R15" t="n">
-        <v>2419.88210921137</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S15" t="n">
-        <v>2267.08262222411</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T15" t="n">
-        <v>2078.397518390096</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U15" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="16">
@@ -5416,46 +5416,46 @@
         <v>292.1947796630689</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6988112465981</v>
+        <v>253.698811246598</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2657217636834</v>
+        <v>216.2657217636832</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3609915452269</v>
+        <v>178.3609915452267</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0171676688433</v>
+        <v>124.0171676688429</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388354</v>
+        <v>79.22044720388305</v>
       </c>
       <c r="I16" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0270918774858</v>
+        <v>103.0270918774855</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9271434752558</v>
+        <v>248.9271434752551</v>
       </c>
       <c r="L16" t="n">
-        <v>461.830086728642</v>
+        <v>461.8300867286413</v>
       </c>
       <c r="M16" t="n">
-        <v>692.1194567093704</v>
+        <v>692.1194567093697</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120976</v>
+        <v>922.8376623120968</v>
       </c>
       <c r="O16" t="n">
-        <v>1133.597172660914</v>
+        <v>1133.597172660913</v>
       </c>
       <c r="P16" t="n">
         <v>1308.861520242178</v>
       </c>
       <c r="Q16" t="n">
-        <v>1383.386935841786</v>
+        <v>1383.386935841785</v>
       </c>
       <c r="R16" t="n">
         <v>1348.44107921193</v>
@@ -5467,16 +5467,16 @@
         <v>1130.704212942829</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0898981876956</v>
+        <v>958.0898981876954</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9305185018845</v>
+        <v>811.9305185018844</v>
       </c>
       <c r="W16" t="n">
-        <v>640.35004177505</v>
+        <v>640.3500417750499</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261922</v>
+        <v>523.673502426192</v>
       </c>
       <c r="Y16" t="n">
         <v>416.2142683742356</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951885</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.709846338098</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187285</v>
+        <v>916.6170176187288</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782413</v>
+        <v>694.5624337782418</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418175</v>
+        <v>453.1423791418168</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494113</v>
+        <v>209.769528649411</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012656</v>
+        <v>49.67939030012636</v>
       </c>
       <c r="I17" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5918718351342</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K17" t="n">
-        <v>531.0260303258601</v>
+        <v>361.7322438799169</v>
       </c>
       <c r="L17" t="n">
-        <v>1000.042916716968</v>
+        <v>741.9145456683086</v>
       </c>
       <c r="M17" t="n">
-        <v>1393.282082970055</v>
+        <v>1304.44749836734</v>
       </c>
       <c r="N17" t="n">
-        <v>1771.613441657771</v>
+        <v>1682.778857055056</v>
       </c>
       <c r="O17" t="n">
-        <v>2076.618026130605</v>
+        <v>1987.78344152789</v>
       </c>
       <c r="P17" t="n">
-        <v>2304.774922586658</v>
+        <v>2215.940337983943</v>
       </c>
       <c r="Q17" t="n">
-        <v>2399.207176273195</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800183</v>
       </c>
       <c r="T17" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.5407285846</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528352</v>
       </c>
       <c r="V17" t="n">
-        <v>2167.138390301349</v>
+        <v>2167.138390301347</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212356</v>
+        <v>1977.334596212354</v>
       </c>
       <c r="X17" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787254</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.224872416498</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>840.3334774161622</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C18" t="n">
-        <v>678.6298046571169</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D18" t="n">
-        <v>539.791167647329</v>
+        <v>539.7911676473276</v>
       </c>
       <c r="E18" t="n">
-        <v>392.7631577042002</v>
+        <v>392.7631577041988</v>
       </c>
       <c r="F18" t="n">
-        <v>258.0693596540746</v>
+        <v>258.0693596540732</v>
       </c>
       <c r="G18" t="n">
-        <v>129.3408596773591</v>
+        <v>129.3408596773578</v>
       </c>
       <c r="H18" t="n">
-        <v>49.59332756232849</v>
+        <v>117.9756128722675</v>
       </c>
       <c r="I18" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J18" t="n">
         <v>109.8474740954346</v>
@@ -5604,40 +5604,40 @@
         <v>1190.193225335966</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.598878270982</v>
+        <v>1627.598878270981</v>
       </c>
       <c r="O18" t="n">
-        <v>2019.798829055133</v>
+        <v>2019.798829055132</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330829</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R18" t="n">
-        <v>2419.88210921137</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S18" t="n">
-        <v>2267.08262222411</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T18" t="n">
-        <v>2078.397518390096</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U18" t="n">
-        <v>1859.902725988406</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V18" t="n">
-        <v>1631.50710343674</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W18" t="n">
-        <v>1390.19123467005</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X18" t="n">
-        <v>1192.274246547844</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.7529201974231</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="C19" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="D19" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="E19" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="F19" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="G19" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H19" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I19" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J19" t="n">
-        <v>49.59332756232849</v>
+        <v>53.49864670158617</v>
       </c>
       <c r="K19" t="n">
-        <v>83.19751530697189</v>
+        <v>87.10283444622958</v>
       </c>
       <c r="L19" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464891</v>
       </c>
       <c r="M19" t="n">
-        <v>301.7981008348331</v>
+        <v>305.7034199740908</v>
       </c>
       <c r="N19" t="n">
-        <v>420.2204425844335</v>
+        <v>424.1257617236912</v>
       </c>
       <c r="O19" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193809</v>
       </c>
       <c r="P19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475201</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046136</v>
+        <v>544.5792654046123</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736983</v>
+        <v>484.1314482736973</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162041</v>
+        <v>369.6723448162032</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280327</v>
+        <v>281.6681764280319</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988377</v>
+        <v>168.2429109988371</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476194</v>
+        <v>109.721582947619</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330239</v>
+        <v>60.41756019330219</v>
       </c>
     </row>
     <row r="20">
@@ -5732,34 +5732,34 @@
         <v>1116.709846338099</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187284</v>
+        <v>916.6170176187288</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782411</v>
+        <v>694.5624337782418</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418174</v>
+        <v>453.1423791418168</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494113</v>
+        <v>209.769528649411</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012656</v>
+        <v>49.67939030012636</v>
       </c>
       <c r="I20" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J20" t="n">
-        <v>290.8856582810773</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K20" t="n">
-        <v>531.02603032586</v>
+        <v>361.7322438799169</v>
       </c>
       <c r="L20" t="n">
-        <v>878.9114034108063</v>
+        <v>709.6176169648631</v>
       </c>
       <c r="M20" t="n">
-        <v>1272.150569663894</v>
+        <v>1102.856783217951</v>
       </c>
       <c r="N20" t="n">
         <v>1650.48192835161</v>
@@ -5768,34 +5768,34 @@
         <v>1955.486512824444</v>
       </c>
       <c r="P20" t="n">
-        <v>2183.643409280497</v>
+        <v>2352.93719572644</v>
       </c>
       <c r="Q20" t="n">
-        <v>2399.207176273195</v>
+        <v>2447.369449412977</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800183</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.5407285846</v>
       </c>
       <c r="U20" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528352</v>
       </c>
       <c r="V20" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301347</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212354</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787254</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.224872416498</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>900.1177463212168</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C21" t="n">
-        <v>738.4140735621716</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D21" t="n">
-        <v>599.5754365523836</v>
+        <v>539.7911676473276</v>
       </c>
       <c r="E21" t="n">
-        <v>452.5474266092548</v>
+        <v>392.7631577041988</v>
       </c>
       <c r="F21" t="n">
-        <v>317.8536285591292</v>
+        <v>258.0693596540732</v>
       </c>
       <c r="G21" t="n">
-        <v>189.1251285824138</v>
+        <v>129.3408596773578</v>
       </c>
       <c r="H21" t="n">
-        <v>89.18727112911183</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J21" t="n">
         <v>109.8474740954346</v>
@@ -5838,43 +5838,43 @@
         <v>705.1598718257389</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147859</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.598878270982</v>
+        <v>1627.598878270981</v>
       </c>
       <c r="O21" t="n">
-        <v>2019.798829055133</v>
+        <v>2019.798829055132</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330829</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R21" t="n">
-        <v>2479.666378116424</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S21" t="n">
-        <v>2326.866891129165</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T21" t="n">
-        <v>2138.18178729515</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U21" t="n">
-        <v>1919.68699489346</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V21" t="n">
-        <v>1691.291372341794</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W21" t="n">
-        <v>1449.975503575104</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X21" t="n">
-        <v>1252.058515452899</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y21" t="n">
-        <v>1059.537189102478</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="C22" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="D22" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="E22" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="F22" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="G22" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H22" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I22" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J22" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="K22" t="n">
-        <v>87.10283444623106</v>
+        <v>87.10283444622958</v>
       </c>
       <c r="L22" t="n">
-        <v>187.7099138464906</v>
+        <v>187.7099138464891</v>
       </c>
       <c r="M22" t="n">
-        <v>305.7034199740923</v>
+        <v>305.7034199740908</v>
       </c>
       <c r="N22" t="n">
-        <v>424.1257617236927</v>
+        <v>424.1257617236912</v>
       </c>
       <c r="O22" t="n">
-        <v>522.5894082193823</v>
+        <v>522.5894082193809</v>
       </c>
       <c r="P22" t="n">
-        <v>585.5578919475201</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="Q22" t="n">
-        <v>585.5578919475201</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475201</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046136</v>
+        <v>544.5792654046123</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736983</v>
+        <v>484.1314482736973</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162041</v>
+        <v>369.6723448162032</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280327</v>
+        <v>281.6681764280319</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988377</v>
+        <v>168.2429109988371</v>
       </c>
       <c r="X22" t="n">
-        <v>109.7215829476194</v>
+        <v>109.721582947619</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330239</v>
+        <v>60.41756019330219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951885</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.709846338098</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187281</v>
+        <v>916.6170176187279</v>
       </c>
       <c r="E23" t="n">
-        <v>694.562433778241</v>
+        <v>694.5624337782408</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418173</v>
+        <v>453.1423791418172</v>
       </c>
       <c r="G23" t="n">
         <v>209.7695286494113</v>
       </c>
       <c r="H23" t="n">
-        <v>49.6793903001265</v>
+        <v>49.67939030012635</v>
       </c>
       <c r="I23" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="J23" t="n">
-        <v>290.8856582810773</v>
+        <v>290.8856582810774</v>
       </c>
       <c r="K23" t="n">
-        <v>531.0260303258601</v>
+        <v>531.0260303258602</v>
       </c>
       <c r="L23" t="n">
-        <v>878.9114034108063</v>
+        <v>878.9114034108065</v>
       </c>
       <c r="M23" t="n">
         <v>1272.150569663894</v>
@@ -6002,37 +6002,37 @@
         <v>1650.48192835161</v>
       </c>
       <c r="O23" t="n">
-        <v>1955.486512824444</v>
+        <v>1987.783441527889</v>
       </c>
       <c r="P23" t="n">
-        <v>2183.643409280497</v>
+        <v>2215.940337983942</v>
       </c>
       <c r="Q23" t="n">
-        <v>2447.369449412977</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800182</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.540728584599</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528351999</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301349</v>
+        <v>2167.138390301347</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212356</v>
+        <v>1977.334596212354</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787254</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.224872416498</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161603</v>
       </c>
       <c r="C24" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571151</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473271</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577041984</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540727</v>
       </c>
       <c r="G24" t="n">
-        <v>217.9134703255694</v>
+        <v>129.3408596773573</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="J24" t="n">
-        <v>109.8474740954346</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="K24" t="n">
-        <v>339.3380266556233</v>
+        <v>279.0838801225171</v>
       </c>
       <c r="L24" t="n">
-        <v>705.1598718257389</v>
+        <v>631.2998786376319</v>
       </c>
       <c r="M24" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147858</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.59887827098</v>
       </c>
       <c r="O24" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055131</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330828</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R24" t="n">
-        <v>2419.88210921137</v>
+        <v>2419.882109211368</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.08262222411</v>
+        <v>2267.082622224108</v>
       </c>
       <c r="T24" t="n">
-        <v>2078.397518390096</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U24" t="n">
-        <v>1859.902725988406</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547842</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974213</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="C25" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="D25" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="E25" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="F25" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="G25" t="n">
-        <v>49.59332756232849</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="H25" t="n">
-        <v>49.59332756232849</v>
+        <v>53.49864670158617</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59332756232849</v>
+        <v>53.49864670158617</v>
       </c>
       <c r="J25" t="n">
-        <v>49.59332756232849</v>
+        <v>53.49864670158617</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697189</v>
+        <v>87.10283444622958</v>
       </c>
       <c r="L25" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464891</v>
       </c>
       <c r="M25" t="n">
-        <v>301.7981008348331</v>
+        <v>305.7034199740908</v>
       </c>
       <c r="N25" t="n">
-        <v>420.2204425844335</v>
+        <v>424.1257617236912</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193809</v>
       </c>
       <c r="P25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475196</v>
+        <v>585.5578919475187</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046131</v>
+        <v>544.5792654046123</v>
       </c>
       <c r="T25" t="n">
-        <v>484.131448273698</v>
+        <v>484.1314482736973</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162039</v>
+        <v>369.6723448162032</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280324</v>
+        <v>281.6681764280319</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988375</v>
+        <v>168.2429109988371</v>
       </c>
       <c r="X25" t="n">
-        <v>109.7215829476193</v>
+        <v>109.721582947619</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330234</v>
+        <v>60.41756019330218</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1444.667430845791</v>
+        <v>1422.858215795354</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.309596934365</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D26" t="n">
-        <v>919.0615569173547</v>
+        <v>942.1501991690557</v>
       </c>
       <c r="E26" t="n">
-        <v>638.8517617792277</v>
+        <v>661.9404040309289</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8517617792277</v>
+        <v>362.3651380968657</v>
       </c>
       <c r="G26" t="n">
-        <v>337.323699989182</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0783503422577</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="I26" t="n">
-        <v>60.83707630682011</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327524</v>
+        <v>245.1314844327514</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306618</v>
+        <v>597.5677203306609</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.748957268735</v>
+        <v>1057.748957268734</v>
       </c>
       <c r="M26" t="n">
         <v>1563.283987374949</v>
@@ -6248,28 +6248,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T26" t="n">
-        <v>2881.226958264343</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U26" t="n">
-        <v>2740.917546734104</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V26" t="n">
-        <v>2518.514197385812</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W26" t="n">
-        <v>2270.55519199918</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X26" t="n">
-        <v>2003.10097627644</v>
+        <v>1981.291761226002</v>
       </c>
       <c r="Y26" t="n">
-        <v>1724.135045608044</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I27" t="n">
         <v>60.83707630682017</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901143</v>
+        <v>358.4785731901147</v>
       </c>
       <c r="C28" t="n">
-        <v>303.438528407561</v>
+        <v>303.4385284075614</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910901</v>
+        <v>264.9425599910905</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081754</v>
+        <v>227.5094705081758</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897188</v>
+        <v>189.6047402897191</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2609164133351</v>
+        <v>135.2609164133356</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837568</v>
       </c>
       <c r="I28" t="n">
         <v>60.83707630682017</v>
@@ -6388,22 +6388,22 @@
         <v>260.1708922197473</v>
       </c>
       <c r="L28" t="n">
-        <v>473.073835473133</v>
+        <v>473.0738354731334</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538616</v>
+        <v>703.3632054538621</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565886</v>
+        <v>934.0814110565891</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.840921405405</v>
+        <v>1144.840921405406</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.105268986669</v>
+        <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586277</v>
+        <v>1394.630684586278</v>
       </c>
       <c r="R28" t="n">
         <v>1359.684827956422</v>
@@ -6415,19 +6415,19 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321874</v>
+        <v>969.3336469321877</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463764</v>
+        <v>823.1742672463768</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195419</v>
+        <v>651.5937905195423</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706842</v>
+        <v>534.9172511706845</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187277</v>
+        <v>427.458017118728</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1605.294287922456</v>
+        <v>1422.858215795352</v>
       </c>
       <c r="C29" t="n">
-        <v>1337.936454011029</v>
+        <v>1155.500381883926</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.688413994019</v>
+        <v>897.2523418669168</v>
       </c>
       <c r="E29" t="n">
-        <v>799.4786188558927</v>
+        <v>897.2523418669168</v>
       </c>
       <c r="F29" t="n">
-        <v>499.9033529218294</v>
+        <v>597.6770759328535</v>
       </c>
       <c r="G29" t="n">
-        <v>198.3752911317838</v>
+        <v>296.1490141428078</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="I29" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J29" t="n">
-        <v>245.1314844327525</v>
+        <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306619</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6473,10 +6473,10 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915792</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P29" t="n">
         <v>2811.664418550932</v>
@@ -6485,28 +6485,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>3041.853815341009</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>3041.853815341009</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U29" t="n">
-        <v>2901.544403810769</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2679.141054462477</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W29" t="n">
-        <v>2431.182049075844</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.727833353104</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y29" t="n">
-        <v>1884.761902684708</v>
+        <v>1702.325830557605</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I30" t="n">
         <v>60.83707630682017</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.478573190114</v>
+        <v>358.4785731901139</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075607</v>
+        <v>303.4385284075606</v>
       </c>
       <c r="D31" t="n">
         <v>264.9425599910898</v>
@@ -6607,37 +6607,37 @@
         <v>227.509470508175</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837523</v>
+        <v>90.46419594837531</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219772</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197475</v>
+        <v>260.170892219747</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731337</v>
+        <v>473.0738354731332</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538615</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565891</v>
+        <v>934.0814110565884</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405405</v>
       </c>
       <c r="P31" t="n">
-        <v>1320.10526898667</v>
+        <v>1320.105268986669</v>
       </c>
       <c r="Q31" t="n">
         <v>1394.630684586277</v>
@@ -6652,13 +6652,13 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321872</v>
+        <v>969.3336469321873</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463762</v>
+        <v>823.1742672463763</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195417</v>
+        <v>651.5937905195418</v>
       </c>
       <c r="X31" t="n">
         <v>534.9172511706839</v>
@@ -6680,10 +6680,10 @@
         <v>1303.684062512361</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807428</v>
+        <v>1073.941600807427</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813781</v>
+        <v>822.2373839813779</v>
       </c>
       <c r="F32" t="n">
         <v>551.1676963593918</v>
@@ -6692,43 +6692,43 @@
         <v>278.1452128814233</v>
       </c>
       <c r="H32" t="n">
-        <v>88.40544154657564</v>
+        <v>88.40544154657547</v>
       </c>
       <c r="I32" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321497</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9024712528139</v>
+        <v>130.6682900960206</v>
       </c>
       <c r="K32" t="n">
-        <v>651.2770244543899</v>
+        <v>511.0428432975967</v>
       </c>
       <c r="L32" t="n">
-        <v>999.1623975393361</v>
+        <v>858.928216382543</v>
       </c>
       <c r="M32" t="n">
         <v>1392.401563792424</v>
       </c>
       <c r="N32" t="n">
-        <v>1833.791416520867</v>
+        <v>1910.967103636934</v>
       </c>
       <c r="O32" t="n">
-        <v>2279.030182150495</v>
+        <v>2279.030182150492</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.421259763341</v>
+        <v>2647.421259763339</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.087694606671</v>
+        <v>2882.087694606669</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.48729116075</v>
+        <v>2933.487291160749</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858948</v>
+        <v>2889.339818858946</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.062375657802</v>
+        <v>2808.062375657801</v>
       </c>
       <c r="U32" t="n">
         <v>2696.258542439638</v>
@@ -6740,7 +6740,7 @@
         <v>2282.907344328868</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918205</v>
+        <v>2043.958706918204</v>
       </c>
       <c r="Y32" t="n">
         <v>1793.498354561886</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9825063252591</v>
+        <v>923.2698888651546</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2788335662138</v>
+        <v>761.5662161061093</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4401965564259</v>
+        <v>622.7275790963214</v>
       </c>
       <c r="E33" t="n">
-        <v>490.4121866132971</v>
+        <v>475.6995691531926</v>
       </c>
       <c r="F33" t="n">
-        <v>355.7183885631714</v>
+        <v>341.005771103067</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9898885864559</v>
+        <v>212.2772711263516</v>
       </c>
       <c r="H33" t="n">
         <v>127.052031133154</v>
       </c>
       <c r="I33" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321497</v>
       </c>
       <c r="J33" t="n">
         <v>118.9238923563211</v>
@@ -6783,7 +6783,7 @@
         <v>348.4144449165098</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866254</v>
+        <v>714.2362900866253</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6801,28 +6801,28 @@
         <v>2562.602789565417</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.531138120466</v>
+        <v>2502.818520660362</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.731651133207</v>
+        <v>2350.019033673103</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.046547299192</v>
+        <v>2161.333929839088</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.551754897502</v>
+        <v>1942.839137437398</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.156132345836</v>
+        <v>1714.443514885732</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.840263579146</v>
+        <v>1473.127646119042</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.923275456941</v>
+        <v>1275.210657996837</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.40194910652</v>
+        <v>1082.689331646415</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.7721945219702</v>
+        <v>156.7721945219692</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514938</v>
+        <v>130.237728051493</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379470999</v>
+        <v>120.2473379470992</v>
       </c>
       <c r="E34" t="n">
-        <v>111.3198267762621</v>
+        <v>111.3198267762615</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698826</v>
+        <v>101.9206748698821</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557594</v>
+        <v>76.08242930557563</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269312</v>
+        <v>59.79128715269295</v>
       </c>
       <c r="I34" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321497</v>
       </c>
       <c r="J34" t="n">
-        <v>140.041827442039</v>
+        <v>58.66974582321497</v>
       </c>
       <c r="K34" t="n">
-        <v>313.8801963434756</v>
+        <v>92.27393356785839</v>
       </c>
       <c r="L34" t="n">
-        <v>414.4872757437352</v>
+        <v>192.8810129681179</v>
       </c>
       <c r="M34" t="n">
-        <v>532.4807818713368</v>
+        <v>310.8745190957196</v>
       </c>
       <c r="N34" t="n">
-        <v>774.9419708856134</v>
+        <v>532.2440568255436</v>
       </c>
       <c r="O34" t="n">
-        <v>873.405617381303</v>
+        <v>770.9418844780266</v>
       </c>
       <c r="P34" t="n">
-        <v>936.3741011094409</v>
+        <v>833.9103682061644</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094409</v>
+        <v>936.3741011094385</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916625</v>
+        <v>929.9338227916602</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631933</v>
+        <v>859.3055632631913</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2081131467155</v>
+        <v>769.2081131467136</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036587</v>
+        <v>625.099376703657</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299246</v>
+        <v>507.4455753299231</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151671</v>
+        <v>364.3706769151657</v>
       </c>
       <c r="X34" t="n">
-        <v>276.1997158783862</v>
+        <v>276.1997158783849</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385067</v>
+        <v>197.2460601385055</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>1080.236268659741</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P35" t="n">
         <v>2384.968274529432</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H36" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>66.12215891288226</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>65.00954678826453</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>73.27619169846318</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>73.27619169846318</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>73.27619169846318</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670033</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7154,58 +7154,58 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575751</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>567.8831210837639</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>915.76849416871</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1309.007660421798</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1687.339019109514</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.81137807338</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529433</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.40052821597</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
         <v>2222.809732105717</v>
@@ -7214,10 +7214,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,22 +7275,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
         <v>1267.641586535707</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749101</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670351</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670351</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670351</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670351</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373986</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683833</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686428</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962445</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458449</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415346</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696724</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696724</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696724</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808921</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041031</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007352</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.79296656669</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916213</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945293</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433861</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1391.845894793126</v>
+        <v>1315.263619900707</v>
       </c>
       <c r="C41" t="n">
-        <v>1171.891248549459</v>
+        <v>1095.30897365704</v>
       </c>
       <c r="D41" t="n">
-        <v>961.0463962002087</v>
+        <v>884.4641213077898</v>
       </c>
       <c r="E41" t="n">
-        <v>728.2397887298412</v>
+        <v>651.6575138374226</v>
       </c>
       <c r="F41" t="n">
-        <v>476.0677104635372</v>
+        <v>399.4854355711187</v>
       </c>
       <c r="G41" t="n">
-        <v>221.9428363412508</v>
+        <v>145.3605614488325</v>
       </c>
       <c r="H41" t="n">
-        <v>51.10067436208574</v>
+        <v>61.93876072976391</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
@@ -7415,19 +7415,19 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>869.8806918509179</v>
+        <v>869.8806918509181</v>
       </c>
       <c r="M41" t="n">
         <v>1263.119858104006</v>
       </c>
       <c r="N41" t="n">
-        <v>1641.451216791721</v>
+        <v>1698.763111918982</v>
       </c>
       <c r="O41" t="n">
-        <v>1946.455801264555</v>
+        <v>2162.523424478113</v>
       </c>
       <c r="P41" t="n">
-        <v>2231.924592847869</v>
+        <v>2390.680320934167</v>
       </c>
       <c r="Q41" t="n">
         <v>2485.112574620704</v>
@@ -7439,22 +7439,22 @@
         <v>2529.783855158167</v>
       </c>
       <c r="T41" t="n">
-        <v>2529.783855158167</v>
+        <v>2467.404021312704</v>
       </c>
       <c r="U41" t="n">
-        <v>2436.877631295687</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V41" t="n">
-        <v>2261.877469615153</v>
+        <v>2199.497635769691</v>
       </c>
       <c r="W41" t="n">
-        <v>2075.524092943238</v>
+        <v>1998.941818050818</v>
       </c>
       <c r="X41" t="n">
-        <v>1855.473064888256</v>
+        <v>1778.890789995837</v>
       </c>
       <c r="Y41" t="n">
-        <v>1623.91032188762</v>
+        <v>1547.328046995201</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550411</v>
+        <v>58.73753147687962</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057071007</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057071007</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057071007</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057071007</v>
+        <v>60.41011250814752</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>53.46947629952334</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>53.46947629952334</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>53.46947629952334</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>53.46947629952334</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>87.07366404416675</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>187.6807434444262</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>400.8638129276844</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>519.2861546772848</v>
       </c>
       <c r="O43" t="n">
-        <v>624.6904373816001</v>
+        <v>617.7498011729745</v>
       </c>
       <c r="P43" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011123</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011123</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011123</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369511</v>
+        <v>628.9876347283256</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761556</v>
+        <v>557.7877939675302</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887811</v>
+        <v>432.5766668801559</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707293</v>
+        <v>333.8204748621043</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116541</v>
+        <v>209.6431858030292</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305555</v>
+        <v>140.3698341219308</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635827</v>
+        <v>80.31378773773365</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1402.683981160805</v>
+        <v>1315.263619900708</v>
       </c>
       <c r="C44" t="n">
-        <v>1182.729334917138</v>
+        <v>1095.308973657041</v>
       </c>
       <c r="D44" t="n">
-        <v>971.8844825678869</v>
+        <v>884.4641213077909</v>
       </c>
       <c r="E44" t="n">
-        <v>739.0778750975195</v>
+        <v>651.6575138374237</v>
       </c>
       <c r="F44" t="n">
-        <v>486.9057968312155</v>
+        <v>399.4854355711192</v>
       </c>
       <c r="G44" t="n">
-        <v>232.7809227089291</v>
+        <v>145.3605614488332</v>
       </c>
       <c r="H44" t="n">
-        <v>61.93876072976406</v>
+        <v>61.93876072976384</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>281.8549467211891</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>521.9953187659719</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>869.8806918509181</v>
       </c>
       <c r="M44" t="n">
-        <v>1231.597168628552</v>
+        <v>1263.119858104006</v>
       </c>
       <c r="N44" t="n">
-        <v>1768.684255402565</v>
+        <v>1641.451216791722</v>
       </c>
       <c r="O44" t="n">
-        <v>2073.688839875399</v>
+        <v>1946.455801264556</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2301.845736331452</v>
       </c>
       <c r="Q44" t="n">
         <v>2555.033718104287</v>
@@ -7679,19 +7679,19 @@
         <v>2467.404021312704</v>
       </c>
       <c r="U44" t="n">
-        <v>2374.497797450223</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V44" t="n">
-        <v>2199.49763576969</v>
+        <v>2199.497635769691</v>
       </c>
       <c r="W44" t="n">
-        <v>1998.941818050817</v>
+        <v>1998.941818050818</v>
       </c>
       <c r="X44" t="n">
-        <v>1866.311151255935</v>
+        <v>1778.890789995838</v>
       </c>
       <c r="Y44" t="n">
-        <v>1634.748408255299</v>
+        <v>1547.328046995201</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550409</v>
+        <v>58.73753147687955</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057071005</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057071005</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057071005</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057071005</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>182.2632273998224</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>282.8703068000819</v>
       </c>
       <c r="M46" t="n">
-        <v>407.80444913631</v>
+        <v>400.8638129276836</v>
       </c>
       <c r="N46" t="n">
-        <v>526.2267908859104</v>
+        <v>519.286154677284</v>
       </c>
       <c r="O46" t="n">
-        <v>624.6904373816001</v>
+        <v>617.7498011729737</v>
       </c>
       <c r="P46" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011115</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011115</v>
       </c>
       <c r="R46" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011115</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369511</v>
+        <v>628.9876347283249</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761556</v>
+        <v>557.7877939675296</v>
       </c>
       <c r="U46" t="n">
-        <v>439.5173030887811</v>
+        <v>432.5766668801554</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707293</v>
+        <v>333.8204748621039</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116541</v>
+        <v>209.6431858030289</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305555</v>
+        <v>140.3698341219305</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635826</v>
+        <v>80.31378773773349</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>435.6876660906818</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>406.45252263291</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>480.7580801684244</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>604.9267112876339</v>
+        <v>604.9267112876337</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>327.7478941856474</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>386.8429258133746</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8225,7 +8225,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>461.2790889106753</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8292,25 +8292,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>372.2735751992419</v>
       </c>
       <c r="N6" t="n">
-        <v>497.0161000033152</v>
+        <v>604.9267112876337</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8535,22 +8535,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>604.2880128282179</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>339.3955455065575</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.4944203312443</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>530.8105291496397</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>339.395545506559</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>548.5390329212605</v>
+        <v>548.5390329212591</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>530.8105291496397</v>
       </c>
       <c r="N21" t="n">
-        <v>548.5390329212605</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>468.3491694450011</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>339.395545506559</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>106.6814646854686</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>114.0382548527611</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>232.8745314175173</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>56.80987352082491</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
         <v>57.65886129508321</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-3.617953323310983e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24446,22 +24446,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>44.448878729117</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.062896150455</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508315</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>21.5911228999326</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5589247688241</v>
+        <v>40.76293898791062</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>86.54615764749538</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400154</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700853</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>14.06041663648739</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>86.54615764749455</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>86.54615764749801</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>712614.643538062</v>
+        <v>712614.6435380619</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>712614.643538062</v>
+        <v>712614.6435380619</v>
       </c>
     </row>
     <row r="4">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691427.6399811871</v>
+        <v>691427.6399811869</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708021.2176228727</v>
+        <v>708021.2176228728</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708021.2176228724</v>
+        <v>708021.2176228728</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>652480.4514200549</v>
+        <v>652480.4514200548</v>
       </c>
       <c r="C2" t="n">
+        <v>652480.4514200545</v>
+      </c>
+      <c r="D2" t="n">
         <v>652480.4514200547</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>594048.9447135393</v>
+      </c>
+      <c r="F2" t="n">
+        <v>594048.9447135393</v>
+      </c>
+      <c r="G2" t="n">
+        <v>652480.4514200548</v>
+      </c>
+      <c r="H2" t="n">
         <v>652480.451420055</v>
       </c>
-      <c r="E2" t="n">
-        <v>594048.9447135397</v>
-      </c>
-      <c r="F2" t="n">
-        <v>594048.9447135396</v>
-      </c>
-      <c r="G2" t="n">
-        <v>652480.451420055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>652480.4514200549</v>
-      </c>
       <c r="I2" t="n">
-        <v>652480.4514200552</v>
+        <v>652480.4514200547</v>
       </c>
       <c r="J2" t="n">
-        <v>630953.0261764778</v>
+        <v>630953.0261764772</v>
       </c>
       <c r="K2" t="n">
-        <v>630953.0261764772</v>
+        <v>630953.0261764766</v>
       </c>
       <c r="L2" t="n">
-        <v>652480.4514200545</v>
+        <v>652480.4514200538</v>
       </c>
       <c r="M2" t="n">
-        <v>652480.4514200549</v>
+        <v>652480.4514200547</v>
       </c>
       <c r="N2" t="n">
-        <v>652480.4514200549</v>
+        <v>652480.4514200547</v>
       </c>
       <c r="O2" t="n">
-        <v>646624.7383936252</v>
+        <v>646624.7383936259</v>
       </c>
       <c r="P2" t="n">
-        <v>646624.7383936251</v>
+        <v>646624.7383936258</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528457</v>
+        <v>8415.47335152851</v>
       </c>
       <c r="E3" t="n">
-        <v>118993.6101405801</v>
+        <v>118993.61014058</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.9273477305</v>
+        <v>46058.92734773064</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.802132025361061e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211812.515593756</v>
+        <v>211812.5155937559</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089543</v>
+        <v>68635.34537089572</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423362</v>
+        <v>19582.70168423351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214830.1977547241</v>
+        <v>214830.1977547242</v>
       </c>
       <c r="C4" t="n">
-        <v>214830.1977547241</v>
+        <v>214830.1977547242</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
@@ -26427,7 +26427,7 @@
         <v>161512.4500031762</v>
       </c>
       <c r="F4" t="n">
-        <v>161512.4500031763</v>
+        <v>161512.4500031762</v>
       </c>
       <c r="G4" t="n">
         <v>200499.9663201623</v>
@@ -26445,19 +26445,19 @@
         <v>185256.1270820845</v>
       </c>
       <c r="L4" t="n">
-        <v>199459.627621047</v>
+        <v>199459.6276210469</v>
       </c>
       <c r="M4" t="n">
         <v>198982.8504522114</v>
       </c>
       <c r="N4" t="n">
-        <v>198982.8504522115</v>
+        <v>198982.8504522114</v>
       </c>
       <c r="O4" t="n">
         <v>195068.9606019817</v>
       </c>
       <c r="P4" t="n">
-        <v>195068.9606019816</v>
+        <v>195068.9606019818</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937147</v>
+        <v>63918.86346937146</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937147</v>
+        <v>63918.86346937146</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147925</v>
+        <v>47226.88953147922</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147925</v>
+        <v>47226.88953147922</v>
       </c>
       <c r="G5" t="n">
         <v>52067.04948547469</v>
@@ -26488,28 +26488,28 @@
         <v>52067.04948547469</v>
       </c>
       <c r="I5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547468</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729294</v>
+        <v>55772.13857729293</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729294</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.43851823981</v>
+        <v>56497.4385182398</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
-        <v>52802.81689264636</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52317.7602974952</v>
+        <v>52317.76029749521</v>
       </c>
       <c r="P5" t="n">
-        <v>52317.7602974952</v>
+        <v>52317.76029749522</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206769.2341491472</v>
+        <v>206769.2341491471</v>
       </c>
       <c r="C6" t="n">
-        <v>373731.3901959591</v>
+        <v>373731.3901959589</v>
       </c>
       <c r="D6" t="n">
-        <v>370315.8363367916</v>
+        <v>370315.8363367912</v>
       </c>
       <c r="E6" t="n">
-        <v>266315.995038304</v>
+        <v>266144.1376656376</v>
       </c>
       <c r="F6" t="n">
-        <v>385309.6051788841</v>
+        <v>385137.7478062176</v>
       </c>
       <c r="G6" t="n">
-        <v>353854.5082666875</v>
+        <v>353854.5082666871</v>
       </c>
       <c r="H6" t="n">
         <v>399913.4356144179</v>
       </c>
       <c r="I6" t="n">
-        <v>399913.4356144182</v>
+        <v>399913.4356144177</v>
       </c>
       <c r="J6" t="n">
-        <v>178112.2449233444</v>
+        <v>178048.9289667451</v>
       </c>
       <c r="K6" t="n">
-        <v>389924.7605170998</v>
+        <v>389861.4445605006</v>
       </c>
       <c r="L6" t="n">
-        <v>327888.0399098723</v>
+        <v>327888.0399098714</v>
       </c>
       <c r="M6" t="n">
-        <v>381112.0823909635</v>
+        <v>381112.0823909633</v>
       </c>
       <c r="N6" t="n">
-        <v>400694.7840751971</v>
+        <v>400694.7840751969</v>
       </c>
       <c r="O6" t="n">
-        <v>359168.6075098451</v>
+        <v>359151.3848244738</v>
       </c>
       <c r="P6" t="n">
-        <v>399238.0174941483</v>
+        <v>399220.7948087769</v>
       </c>
     </row>
   </sheetData>
@@ -26698,22 +26698,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="H2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K2" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="P2" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
     </row>
     <row r="3">
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9165945291061</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="F4" t="n">
-        <v>619.9165945291061</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="G4" t="n">
-        <v>619.9165945291061</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="H4" t="n">
-        <v>619.9165945291061</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291061</v>
+        <v>619.9165945291056</v>
       </c>
       <c r="J4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.463453835252</v>
       </c>
       <c r="K4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>733.3718227901875</v>
+        <v>733.3718227901871</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
       </c>
-      <c r="N4" t="n">
-        <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26920,25 +26920,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466313</v>
+        <v>57.5736591846633</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354557</v>
+        <v>55.85650632354549</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.7941817136193</v>
+        <v>85.79418171361965</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529203</v>
+        <v>24.47837710529188</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506473</v>
+        <v>27.0916310450649</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411576</v>
+        <v>94.61339326411542</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466313</v>
+        <v>57.5736591846633</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354557</v>
+        <v>55.85650632354549</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506473</v>
+        <v>27.0916310450649</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411576</v>
+        <v>94.61339326411542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.13474340424719</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>79.85152081930408</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>87.71843567003583</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.6437602414237</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>22.55371792200455</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>90.98852714580337</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>216.8551647553827</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>91.74478586842233</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>162.7435717517303</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>141.3864194807757</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>9.843482091223564</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27819,7 +27819,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>116.1554132164166</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>388.7783283212041</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27907,19 +27907,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>143.3633960396459</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27929,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>82.92511742169421</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>58.13458268863741</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>35.07825590195907</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,7 +28068,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>99.23066939509975</v>
       </c>
     </row>
     <row r="11">
@@ -28114,16 +28114,16 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
-        <v>10.64205129852581</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>10.64205129852451</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28132,7 +28132,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>113.4301655082087</v>
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>87.68688454172958</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>28.50045832572438</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28348,28 +28348,28 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>10.64205129852587</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O14" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>10.64205129852445</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>113.4301655082087</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>87.68688454172954</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>87.68688454172806</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="C17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="D17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="F17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="G17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="H17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>122.3550639456174</v>
+        <v>32.62316030651061</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>171.003824692872</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28606,31 +28606,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>171.003824692872</v>
       </c>
       <c r="R17" t="n">
-        <v>171.0038246928719</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="T17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="U17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="V17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="W17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="X17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
     </row>
     <row r="18">
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>19.9884220848886</v>
+        <v>87.68688454172954</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28743,7 +28743,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>59.456666199969</v>
+        <v>63.40143300730001</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>151.9713303790981</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="T19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="U19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="V19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="W19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="X19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="C20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="D20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="F20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="G20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="H20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="J20" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28834,40 +28834,40 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>171.003824692872</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>171.003824692872</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.3550639456174</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>171.0038246928719</v>
+        <v>122.355063945616</v>
       </c>
       <c r="S20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="T20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="U20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="V20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="W20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="X20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
     </row>
     <row r="21">
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>19.98842208488992</v>
       </c>
       <c r="I21" t="n">
-        <v>28.5004583257241</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4859410478474</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28983,7 +28983,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.944766807331014</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="T22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="U22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="V22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="W22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="X22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="C23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="D23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="F23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="G23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="H23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="J23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>32.62316030651021</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="R23" t="n">
-        <v>122.3550639456174</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="T23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="U23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="V23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="W23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="X23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>19.98842208489036</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>87.68688454172809</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29211,7 +29211,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>161.7236855758499</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -29241,28 +29241,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>151.9713303790975</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="T25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="U25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="V25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="W25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="X25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.003824692872</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082077</v>
       </c>
       <c r="K26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="27">
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550359</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="29">
@@ -29551,7 +29551,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082085</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550359</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="N31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O31" t="n">
         <v>113.4301655082087</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="C32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="D32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="H32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="I32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="J32" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="N32" t="n">
-        <v>63.69544852598733</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="O32" t="n">
-        <v>141.6506880371649</v>
+        <v>63.69544852598449</v>
       </c>
       <c r="P32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="R32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="S32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="U32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="V32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="W32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="X32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="D34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="E34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="I34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="J34" t="n">
-        <v>141.6506880371649</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>125.2917649138143</v>
+        <v>103.9870666466905</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="R34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="S34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="V34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>40.5815716293493</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,10 +30022,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30153,13 +30153,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30168,10 +30168,10 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>23.16225373803865</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30244,16 +30244,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="K38" t="n">
-        <v>40.58157162935098</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,13 +30262,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30314,10 +30314,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1422830299227</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="C41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="D41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="E41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="F41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="G41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="H41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="I41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,46 +30487,46 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>57.89080315884843</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="P41" t="n">
-        <v>57.89080315884905</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="S41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="T41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="U41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="V41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="W41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="X41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
     </row>
     <row r="42">
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="C43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,10 +30627,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="G43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -30648,13 +30648,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>96.15107409662269</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>105.554546971434</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="T43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="U43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="V43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="W43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="X43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992905</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30694,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="C44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="D44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="E44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="F44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="G44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="H44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="I44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,43 +30727,43 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>128.518220819034</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>160.3593212992904</v>
+        <v>128.5182208190338</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="R44" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="T44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="U44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="V44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="W44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="X44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="C46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>157.4996677413692</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30879,13 +30879,13 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>98.54380332635681</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>105.554546971434</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="T46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="U46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="V46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="W46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="X46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
     </row>
   </sheetData>
@@ -34702,7 +34702,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>244.1274539275671</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>218.5757135817535</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>368.1826465972766</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>218.8936881615041</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>208.0199218393278</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34945,7 +34945,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>274.8809747384452</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>256.7896726376021</v>
       </c>
       <c r="N6" t="n">
-        <v>390.3009589356069</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35255,22 +35255,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>497.5728717605097</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>253.2080836669932</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>362.0414180509954</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
@@ -35428,7 +35428,7 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430946</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>23.69826186910355</v>
@@ -35504,10 +35504,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>230.5413394824142</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.75922888635179</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
@@ -35653,19 +35653,19 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
-        <v>392.7949388618751</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
         <v>421.5156043696572</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>241.1035628702954</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>23.69826186910355</v>
@@ -35732,7 +35732,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>415.3266265879998</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35741,7 +35741,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>230.5413394824156</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35884,13 +35884,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>413.5698570613393</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>473.7544306980883</v>
+        <v>384.0225270589816</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>568.2151037363952</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35902,10 +35902,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>266.3899395277579</v>
       </c>
       <c r="R17" t="n">
-        <v>81.27192105376668</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>441.8238918535521</v>
+        <v>441.8238918535508</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.944766807331016</v>
       </c>
       <c r="K19" t="n">
         <v>33.9436239844883</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.944766807332502</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>243.7296269886351</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36130,19 +36130,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>553.1567122562212</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>401.4653362646429</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.7411787805032</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>81.27192105376668</v>
+        <v>32.62316030651081</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>415.3266265879998</v>
       </c>
       <c r="N21" t="n">
-        <v>441.8238918535521</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36258,7 +36258,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.94476680733248</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.9436239844883</v>
+        <v>37.88839079181931</v>
       </c>
       <c r="L22" t="n">
         <v>101.6233125255146</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>243.7296269886352</v>
+        <v>243.7296269886353</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>340.7085991679587</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.3899395277577</v>
+        <v>266.3899395277579</v>
       </c>
       <c r="R23" t="n">
-        <v>32.62316030651219</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>355.7737358738533</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>230.5413394824156</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36507,7 +36507,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.944766807331024</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.944766807331928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.155967803972</v>
+        <v>186.155967803971</v>
       </c>
       <c r="K26" t="n">
         <v>355.9961978766762</v>
@@ -36601,7 +36601,7 @@
         <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>510.6414445517319</v>
+        <v>510.641444551732</v>
       </c>
       <c r="N26" t="n">
         <v>495.583053071558</v>
@@ -36613,10 +36613,10 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.8162803430946</v>
+        <v>208.8162803430947</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.6982618691036</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823979</v>
       </c>
       <c r="K28" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L28" t="n">
         <v>215.0534780337234</v>
@@ -36768,10 +36768,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536093</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36844,16 +36844,16 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799794</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3764903329282</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056324</v>
+        <v>384.2167204056325</v>
       </c>
       <c r="L32" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>538.8619670806883</v>
       </c>
       <c r="N32" t="n">
-        <v>445.8483360893366</v>
+        <v>523.8035756005143</v>
       </c>
       <c r="O32" t="n">
-        <v>449.7361268986133</v>
+        <v>371.7808873874329</v>
       </c>
       <c r="P32" t="n">
-        <v>372.1121996089358</v>
+        <v>372.112199608936</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720508</v>
+        <v>237.0368028720509</v>
       </c>
       <c r="R32" t="n">
-        <v>51.91878439805973</v>
+        <v>51.91878439805987</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.19402183719592</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>175.5943120216532</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37236,16 +37236,16 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>244.9102919336127</v>
+        <v>223.6055936664888</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>241.10891682069</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>103.4987201043172</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>391.9809383818202</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37318,10 +37318,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907976</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37394,7 +37394,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O36" t="n">
         <v>396.1615664486372</v>
@@ -37449,13 +37449,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>57.10587772252695</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>283.1476039978184</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>474.2145040039053</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995367</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37719,7 +37719,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>511.7586880517613</v>
+        <v>511.7586880517615</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>440.0436907221977</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>468.444760160739</v>
       </c>
       <c r="P41" t="n">
-        <v>288.35231473062</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.7454361341763</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>70.62741766018522</v>
+        <v>70.62741766018536</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.403472874809893</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>119.1853597248502</v>
+        <v>215.3364338214729</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>205.0127757549589</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>233.0851235950539</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38023,19 +38023,19 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>525.7294998625572</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>542.5122088626397</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>390.8208328710613</v>
+        <v>358.9797323908047</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>255.7454361341765</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>7.010743645074847</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>132.4874273108451</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>224.7399066962842</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
